--- a/data/trans_orig/IP3110_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP3110_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CD83EB3-A889-4DFC-9C8D-5B9EB78B0B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{93ED9F57-05A7-4377-BFC1-CDD0F8FD99A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{8FD5BA15-6EA2-49E5-901F-1DC0DE1B82B5}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{93D0BE63-B1DC-4E24-B53A-8BE07BDE77E3}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -68,6 +68,96 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Todos los días</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>5 ó 6 veces semana</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>3 ó 4 veces semana</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
     <t>1 ó 2 veces semana</t>
   </si>
   <si>
@@ -98,64 +188,34 @@
     <t>34,77%</t>
   </si>
   <si>
-    <t>3 ó 4 veces semana</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>5 ó 6 veces semana</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
+    <t>menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -188,72 +248,252 @@
     <t>21,42%</t>
   </si>
   <si>
-    <t>Todos los días</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
     <t>43,48%</t>
   </si>
   <si>
@@ -281,55 +521,31 @@
     <t>48,3%</t>
   </si>
   <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
   </si>
   <si>
     <t>3,38%</t>
@@ -356,220 +572,82 @@
     <t>4,36%</t>
   </si>
   <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
   </si>
   <si>
     <t>40,99%</t>
@@ -599,55 +677,31 @@
     <t>43,78%</t>
   </si>
   <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
   </si>
   <si>
     <t>5,86%</t>
@@ -675,60 +729,6 @@
   </si>
   <si>
     <t>7,28%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
   </si>
 </sst>
 </file>
@@ -1120,7 +1120,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1FD4A54-AD3B-456D-8D72-8A36FF1C6FCF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12ACF3C-07C3-4B75-B47F-DDD72633C305}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1238,10 +1238,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>30614</v>
+        <v>2661</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1253,10 +1253,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>27248</v>
+        <v>476</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1268,10 +1268,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>112</v>
+        <v>5</v>
       </c>
       <c r="N4" s="7">
-        <v>57862</v>
+        <v>3137</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1289,10 +1289,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D5" s="7">
-        <v>17670</v>
+        <v>10379</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1304,10 +1304,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="I5" s="7">
-        <v>17121</v>
+        <v>6946</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1319,10 +1319,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="N5" s="7">
-        <v>34791</v>
+        <v>17325</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1340,10 +1340,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D6" s="7">
-        <v>10379</v>
+        <v>17670</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1355,10 +1355,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="I6" s="7">
-        <v>6946</v>
+        <v>17121</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1370,10 +1370,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="N6" s="7">
-        <v>17325</v>
+        <v>34791</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1391,10 +1391,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="D7" s="7">
-        <v>15026</v>
+        <v>30614</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1406,10 +1406,10 @@
         <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="I7" s="7">
-        <v>18940</v>
+        <v>27248</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1421,10 +1421,10 @@
         <v>46</v>
       </c>
       <c r="M7" s="7">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="N7" s="7">
-        <v>33966</v>
+        <v>57862</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1442,10 +1442,10 @@
         <v>50</v>
       </c>
       <c r="C8" s="7">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="D8" s="7">
-        <v>2661</v>
+        <v>25003</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>51</v>
@@ -1457,10 +1457,10 @@
         <v>53</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="I8" s="7">
-        <v>476</v>
+        <v>21483</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>54</v>
@@ -1472,10 +1472,10 @@
         <v>56</v>
       </c>
       <c r="M8" s="7">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="N8" s="7">
-        <v>3137</v>
+        <v>46486</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>57</v>
@@ -1493,10 +1493,10 @@
         <v>60</v>
       </c>
       <c r="C9" s="7">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="D9" s="7">
-        <v>25003</v>
+        <v>15026</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>61</v>
@@ -1508,10 +1508,10 @@
         <v>63</v>
       </c>
       <c r="H9" s="7">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I9" s="7">
-        <v>21483</v>
+        <v>18940</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>64</v>
@@ -1523,10 +1523,10 @@
         <v>66</v>
       </c>
       <c r="M9" s="7">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="N9" s="7">
-        <v>46486</v>
+        <v>33966</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>67</v>
@@ -1597,10 +1597,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="7">
-        <v>213</v>
+        <v>7</v>
       </c>
       <c r="D11" s="7">
-        <v>174906</v>
+        <v>4744</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>72</v>
@@ -1612,10 +1612,10 @@
         <v>74</v>
       </c>
       <c r="H11" s="7">
-        <v>216</v>
+        <v>11</v>
       </c>
       <c r="I11" s="7">
-        <v>157711</v>
+        <v>6834</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>75</v>
@@ -1627,10 +1627,10 @@
         <v>77</v>
       </c>
       <c r="M11" s="7">
-        <v>429</v>
+        <v>18</v>
       </c>
       <c r="N11" s="7">
-        <v>332617</v>
+        <v>11578</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>78</v>
@@ -1648,10 +1648,10 @@
         <v>20</v>
       </c>
       <c r="C12" s="7">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="D12" s="7">
-        <v>97213</v>
+        <v>26003</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>81</v>
@@ -1663,10 +1663,10 @@
         <v>83</v>
       </c>
       <c r="H12" s="7">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="I12" s="7">
-        <v>70219</v>
+        <v>22427</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>84</v>
@@ -1678,10 +1678,10 @@
         <v>86</v>
       </c>
       <c r="M12" s="7">
-        <v>200</v>
+        <v>59</v>
       </c>
       <c r="N12" s="7">
-        <v>167433</v>
+        <v>48430</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>87</v>
@@ -1699,10 +1699,10 @@
         <v>30</v>
       </c>
       <c r="C13" s="7">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D13" s="7">
-        <v>51365</v>
+        <v>35079</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>90</v>
@@ -1711,37 +1711,37 @@
         <v>91</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="H13" s="7">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I13" s="7">
-        <v>40355</v>
+        <v>39081</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M13" s="7">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="N13" s="7">
-        <v>91720</v>
+        <v>74160</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1750,49 +1750,49 @@
         <v>40</v>
       </c>
       <c r="C14" s="7">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="D14" s="7">
-        <v>13616</v>
+        <v>84715</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H14" s="7">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="I14" s="7">
-        <v>8885</v>
+        <v>80059</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M14" s="7">
-        <v>31</v>
+        <v>231</v>
       </c>
       <c r="N14" s="7">
-        <v>22500</v>
+        <v>164774</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1801,49 +1801,49 @@
         <v>50</v>
       </c>
       <c r="C15" s="7">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="D15" s="7">
-        <v>11989</v>
+        <v>41052</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F15" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H15" s="7">
+        <v>54</v>
+      </c>
+      <c r="I15" s="7">
+        <v>38065</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="M15" s="7">
         <v>107</v>
       </c>
-      <c r="G15" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H15" s="7">
-        <v>11</v>
-      </c>
-      <c r="I15" s="7">
-        <v>8450</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="M15" s="7">
-        <v>25</v>
-      </c>
       <c r="N15" s="7">
-        <v>20439</v>
+        <v>79117</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1852,49 +1852,49 @@
         <v>60</v>
       </c>
       <c r="C16" s="7">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="D16" s="7">
-        <v>53192</v>
+        <v>12881</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H16" s="7">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="I16" s="7">
-        <v>60760</v>
+        <v>11801</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M16" s="7">
-        <v>145</v>
+        <v>34</v>
       </c>
       <c r="N16" s="7">
-        <v>113951</v>
+        <v>24682</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1903,10 +1903,10 @@
         <v>3</v>
       </c>
       <c r="C17" s="7">
-        <v>478</v>
+        <v>270</v>
       </c>
       <c r="D17" s="7">
-        <v>402281</v>
+        <v>204474</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>70</v>
@@ -1918,10 +1918,10 @@
         <v>70</v>
       </c>
       <c r="H17" s="7">
-        <v>458</v>
+        <v>281</v>
       </c>
       <c r="I17" s="7">
-        <v>346380</v>
+        <v>198267</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>70</v>
@@ -1933,10 +1933,10 @@
         <v>70</v>
       </c>
       <c r="M17" s="7">
-        <v>936</v>
+        <v>551</v>
       </c>
       <c r="N17" s="7">
-        <v>748661</v>
+        <v>402741</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>70</v>
@@ -1950,55 +1950,55 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="7">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="D18" s="7">
-        <v>84715</v>
+        <v>11989</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H18" s="7">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="I18" s="7">
-        <v>80059</v>
+        <v>8450</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M18" s="7">
-        <v>231</v>
+        <v>25</v>
       </c>
       <c r="N18" s="7">
-        <v>164774</v>
+        <v>20439</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2007,49 +2007,49 @@
         <v>20</v>
       </c>
       <c r="C19" s="7">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D19" s="7">
-        <v>35079</v>
+        <v>51365</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H19" s="7">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I19" s="7">
-        <v>39081</v>
+        <v>40355</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M19" s="7">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="N19" s="7">
-        <v>74160</v>
+        <v>91720</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2058,40 +2058,40 @@
         <v>30</v>
       </c>
       <c r="C20" s="7">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="D20" s="7">
-        <v>26003</v>
+        <v>97213</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H20" s="7">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="I20" s="7">
-        <v>22427</v>
+        <v>70219</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>148</v>
       </c>
       <c r="M20" s="7">
-        <v>59</v>
+        <v>200</v>
       </c>
       <c r="N20" s="7">
-        <v>48430</v>
+        <v>167433</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>149</v>
@@ -2109,49 +2109,49 @@
         <v>40</v>
       </c>
       <c r="C21" s="7">
-        <v>18</v>
+        <v>213</v>
       </c>
       <c r="D21" s="7">
-        <v>12881</v>
+        <v>174906</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H21" s="7">
-        <v>16</v>
+        <v>216</v>
       </c>
       <c r="I21" s="7">
-        <v>11801</v>
+        <v>157711</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M21" s="7">
-        <v>34</v>
+        <v>429</v>
       </c>
       <c r="N21" s="7">
-        <v>24682</v>
+        <v>332617</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2160,49 +2160,49 @@
         <v>50</v>
       </c>
       <c r="C22" s="7">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="D22" s="7">
-        <v>4744</v>
+        <v>53192</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H22" s="7">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="I22" s="7">
-        <v>6834</v>
+        <v>60760</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M22" s="7">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="N22" s="7">
-        <v>11578</v>
+        <v>113951</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2211,46 +2211,46 @@
         <v>60</v>
       </c>
       <c r="C23" s="7">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="D23" s="7">
-        <v>41052</v>
+        <v>13616</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G23" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H23" s="7">
+        <v>14</v>
+      </c>
+      <c r="I23" s="7">
+        <v>8885</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="M23" s="7">
+        <v>31</v>
+      </c>
+      <c r="N23" s="7">
+        <v>22500</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="H23" s="7">
-        <v>54</v>
-      </c>
-      <c r="I23" s="7">
-        <v>38065</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="M23" s="7">
-        <v>107</v>
-      </c>
-      <c r="N23" s="7">
-        <v>79117</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>177</v>
@@ -2262,10 +2262,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>270</v>
+        <v>478</v>
       </c>
       <c r="D24" s="7">
-        <v>204474</v>
+        <v>402281</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>70</v>
@@ -2277,10 +2277,10 @@
         <v>70</v>
       </c>
       <c r="H24" s="7">
-        <v>281</v>
+        <v>458</v>
       </c>
       <c r="I24" s="7">
-        <v>198267</v>
+        <v>346380</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>70</v>
@@ -2292,10 +2292,10 @@
         <v>70</v>
       </c>
       <c r="M24" s="7">
-        <v>551</v>
+        <v>936</v>
       </c>
       <c r="N24" s="7">
-        <v>402741</v>
+        <v>748661</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>70</v>
@@ -2315,10 +2315,10 @@
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>387</v>
+        <v>25</v>
       </c>
       <c r="D25" s="7">
-        <v>290235</v>
+        <v>19394</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>178</v>
@@ -2330,10 +2330,10 @@
         <v>180</v>
       </c>
       <c r="H25" s="7">
-        <v>385</v>
+        <v>23</v>
       </c>
       <c r="I25" s="7">
-        <v>265017</v>
+        <v>15760</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>181</v>
@@ -2345,10 +2345,10 @@
         <v>183</v>
       </c>
       <c r="M25" s="7">
-        <v>772</v>
+        <v>48</v>
       </c>
       <c r="N25" s="7">
-        <v>555252</v>
+        <v>35154</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>184</v>
@@ -2366,10 +2366,10 @@
         <v>20</v>
       </c>
       <c r="C26" s="7">
-        <v>194</v>
+        <v>101</v>
       </c>
       <c r="D26" s="7">
-        <v>149963</v>
+        <v>87747</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>187</v>
@@ -2381,10 +2381,10 @@
         <v>189</v>
       </c>
       <c r="H26" s="7">
-        <v>173</v>
+        <v>94</v>
       </c>
       <c r="I26" s="7">
-        <v>126421</v>
+        <v>69728</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>190</v>
@@ -2396,10 +2396,10 @@
         <v>192</v>
       </c>
       <c r="M26" s="7">
-        <v>367</v>
+        <v>195</v>
       </c>
       <c r="N26" s="7">
-        <v>276384</v>
+        <v>157475</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>193</v>
@@ -2408,7 +2408,7 @@
         <v>194</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>195</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2417,49 +2417,49 @@
         <v>30</v>
       </c>
       <c r="C27" s="7">
-        <v>101</v>
+        <v>194</v>
       </c>
       <c r="D27" s="7">
-        <v>87747</v>
+        <v>149963</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="H27" s="7">
+        <v>173</v>
+      </c>
+      <c r="I27" s="7">
+        <v>126421</v>
+      </c>
+      <c r="J27" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="H27" s="7">
-        <v>94</v>
-      </c>
-      <c r="I27" s="7">
-        <v>69728</v>
-      </c>
-      <c r="J27" s="7" t="s">
+      <c r="K27" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="L27" s="7" t="s">
+      <c r="M27" s="7">
+        <v>367</v>
+      </c>
+      <c r="N27" s="7">
+        <v>276384</v>
+      </c>
+      <c r="O27" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="M27" s="7">
-        <v>195</v>
-      </c>
-      <c r="N27" s="7">
-        <v>157475</v>
-      </c>
-      <c r="O27" s="7" t="s">
+      <c r="P27" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2468,10 +2468,10 @@
         <v>40</v>
       </c>
       <c r="C28" s="7">
-        <v>63</v>
+        <v>387</v>
       </c>
       <c r="D28" s="7">
-        <v>41523</v>
+        <v>290235</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>204</v>
@@ -2483,10 +2483,10 @@
         <v>206</v>
       </c>
       <c r="H28" s="7">
-        <v>64</v>
+        <v>385</v>
       </c>
       <c r="I28" s="7">
-        <v>39626</v>
+        <v>265017</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>207</v>
@@ -2498,10 +2498,10 @@
         <v>209</v>
       </c>
       <c r="M28" s="7">
-        <v>127</v>
+        <v>772</v>
       </c>
       <c r="N28" s="7">
-        <v>81149</v>
+        <v>555252</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>210</v>
@@ -2519,10 +2519,10 @@
         <v>50</v>
       </c>
       <c r="C29" s="7">
-        <v>25</v>
+        <v>169</v>
       </c>
       <c r="D29" s="7">
-        <v>19394</v>
+        <v>119247</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>213</v>
@@ -2534,10 +2534,10 @@
         <v>215</v>
       </c>
       <c r="H29" s="7">
-        <v>23</v>
+        <v>172</v>
       </c>
       <c r="I29" s="7">
-        <v>15760</v>
+        <v>120308</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>216</v>
@@ -2549,10 +2549,10 @@
         <v>218</v>
       </c>
       <c r="M29" s="7">
-        <v>48</v>
+        <v>341</v>
       </c>
       <c r="N29" s="7">
-        <v>35154</v>
+        <v>239555</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>219</v>
@@ -2570,10 +2570,10 @@
         <v>60</v>
       </c>
       <c r="C30" s="7">
-        <v>169</v>
+        <v>63</v>
       </c>
       <c r="D30" s="7">
-        <v>119247</v>
+        <v>41523</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>222</v>
@@ -2585,10 +2585,10 @@
         <v>224</v>
       </c>
       <c r="H30" s="7">
-        <v>172</v>
+        <v>64</v>
       </c>
       <c r="I30" s="7">
-        <v>120308</v>
+        <v>39626</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>225</v>
@@ -2600,10 +2600,10 @@
         <v>227</v>
       </c>
       <c r="M30" s="7">
-        <v>341</v>
+        <v>127</v>
       </c>
       <c r="N30" s="7">
-        <v>239555</v>
+        <v>81149</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>228</v>

--- a/data/trans_orig/IP3110_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP3110_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93ED9F57-05A7-4377-BFC1-CDD0F8FD99A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C4BF7D2-679C-468E-BDE3-48181C583065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{93D0BE63-B1DC-4E24-B53A-8BE07BDE77E3}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6D012920-0FF2-45B9-A026-41776A72B5BB}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="282">
   <si>
     <t>Menores según la frecuencia de tomar patatas fritas y aperitivos salados en 2023 (Tasa respuesta: 96,35%)</t>
   </si>
@@ -65,670 +65,823 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>1 ó 2 veces semana</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>3 ó 4 veces semana</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>5 ó 6 veces semana</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
   </si>
   <si>
     <t>Todos los días</t>
   </si>
   <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>5 ó 6 veces semana</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>3 ó 4 veces semana</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>1 ó 2 veces semana</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
   </si>
   <si>
     <t>1,75%</t>
   </si>
   <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
   </si>
   <si>
     <t>16,61%</t>
   </si>
   <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
   </si>
   <si>
     <t>3,44%</t>
   </si>
   <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>50,15%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
   </si>
   <si>
     <t>2,74%</t>
   </si>
   <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
   </si>
   <si>
     <t>2,47%</t>
   </si>
   <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
   </si>
   <si>
     <t>2,61%</t>
   </si>
   <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -739,7 +892,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -835,39 +988,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -919,7 +1072,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1030,13 +1183,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1045,6 +1191,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1109,19 +1262,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12ACF3C-07C3-4B75-B47F-DDD72633C305}">
-  <dimension ref="A1:Q31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5231801-445B-499B-BFA0-38BB5563EE28}">
+  <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1238,10 +1411,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D4" s="7">
-        <v>2661</v>
+        <v>9976</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1253,10 +1426,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="I4" s="7">
-        <v>476</v>
+        <v>15422</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1268,10 +1441,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="N4" s="7">
-        <v>3137</v>
+        <v>25397</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1289,10 +1462,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D5" s="7">
-        <v>10379</v>
+        <v>11889</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1304,10 +1477,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I5" s="7">
-        <v>6946</v>
+        <v>9685</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1319,10 +1492,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="N5" s="7">
-        <v>17325</v>
+        <v>21573</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1340,10 +1513,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D6" s="7">
-        <v>17670</v>
+        <v>13590</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1355,10 +1528,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I6" s="7">
-        <v>17121</v>
+        <v>12407</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1370,10 +1543,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="N6" s="7">
-        <v>34791</v>
+        <v>25997</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1391,10 +1564,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="D7" s="7">
-        <v>30614</v>
+        <v>3736</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1406,10 +1579,10 @@
         <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="I7" s="7">
-        <v>27248</v>
+        <v>5311</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1421,10 +1594,10 @@
         <v>46</v>
       </c>
       <c r="M7" s="7">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="N7" s="7">
-        <v>57862</v>
+        <v>9047</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1442,10 +1615,10 @@
         <v>50</v>
       </c>
       <c r="C8" s="7">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="D8" s="7">
-        <v>25003</v>
+        <v>1971</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>51</v>
@@ -1457,10 +1630,10 @@
         <v>53</v>
       </c>
       <c r="H8" s="7">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="I8" s="7">
-        <v>21483</v>
+        <v>2992</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>54</v>
@@ -1472,10 +1645,10 @@
         <v>56</v>
       </c>
       <c r="M8" s="7">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="N8" s="7">
-        <v>46486</v>
+        <v>4963</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>57</v>
@@ -1493,10 +1666,10 @@
         <v>60</v>
       </c>
       <c r="C9" s="7">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="D9" s="7">
-        <v>15026</v>
+        <v>1982</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>61</v>
@@ -1508,10 +1681,10 @@
         <v>63</v>
       </c>
       <c r="H9" s="7">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="I9" s="7">
-        <v>18940</v>
+        <v>476</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>64</v>
@@ -1523,10 +1696,10 @@
         <v>66</v>
       </c>
       <c r="M9" s="7">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="N9" s="7">
-        <v>33966</v>
+        <v>2458</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>67</v>
@@ -1544,10 +1717,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="7">
-        <v>191</v>
+        <v>81</v>
       </c>
       <c r="D10" s="7">
-        <v>101353</v>
+        <v>43144</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>70</v>
@@ -1559,10 +1732,10 @@
         <v>70</v>
       </c>
       <c r="H10" s="7">
-        <v>172</v>
+        <v>83</v>
       </c>
       <c r="I10" s="7">
-        <v>92214</v>
+        <v>46293</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>70</v>
@@ -1574,10 +1747,10 @@
         <v>70</v>
       </c>
       <c r="M10" s="7">
-        <v>363</v>
+        <v>164</v>
       </c>
       <c r="N10" s="7">
-        <v>193567</v>
+        <v>89436</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>70</v>
@@ -1597,10 +1770,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="7">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D11" s="7">
-        <v>4744</v>
+        <v>13713</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>72</v>
@@ -1612,10 +1785,10 @@
         <v>74</v>
       </c>
       <c r="H11" s="7">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I11" s="7">
-        <v>6834</v>
+        <v>11722</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>75</v>
@@ -1627,10 +1800,10 @@
         <v>77</v>
       </c>
       <c r="M11" s="7">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="N11" s="7">
-        <v>11578</v>
+        <v>25435</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>78</v>
@@ -1648,10 +1821,10 @@
         <v>20</v>
       </c>
       <c r="C12" s="7">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D12" s="7">
-        <v>26003</v>
+        <v>35362</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>81</v>
@@ -1663,10 +1836,10 @@
         <v>83</v>
       </c>
       <c r="H12" s="7">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="I12" s="7">
-        <v>22427</v>
+        <v>31856</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>84</v>
@@ -1678,10 +1851,10 @@
         <v>86</v>
       </c>
       <c r="M12" s="7">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="N12" s="7">
-        <v>48430</v>
+        <v>67219</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>87</v>
@@ -1699,10 +1872,10 @@
         <v>30</v>
       </c>
       <c r="C13" s="7">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="D13" s="7">
-        <v>35079</v>
+        <v>64197</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>90</v>
@@ -1714,10 +1887,10 @@
         <v>92</v>
       </c>
       <c r="H13" s="7">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="I13" s="7">
-        <v>39081</v>
+        <v>58984</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>93</v>
@@ -1729,10 +1902,10 @@
         <v>95</v>
       </c>
       <c r="M13" s="7">
-        <v>102</v>
+        <v>202</v>
       </c>
       <c r="N13" s="7">
-        <v>74160</v>
+        <v>123181</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>96</v>
@@ -1750,10 +1923,10 @@
         <v>40</v>
       </c>
       <c r="C14" s="7">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="D14" s="7">
-        <v>84715</v>
+        <v>34972</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>99</v>
@@ -1765,10 +1938,10 @@
         <v>101</v>
       </c>
       <c r="H14" s="7">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="I14" s="7">
-        <v>80059</v>
+        <v>35122</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>102</v>
@@ -1777,22 +1950,22 @@
         <v>103</v>
       </c>
       <c r="L14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="7">
+        <v>112</v>
+      </c>
+      <c r="N14" s="7">
+        <v>70094</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="M14" s="7">
-        <v>231</v>
-      </c>
-      <c r="N14" s="7">
-        <v>164774</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1801,49 +1974,49 @@
         <v>50</v>
       </c>
       <c r="C15" s="7">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D15" s="7">
-        <v>41052</v>
+        <v>22214</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="H15" s="7">
+        <v>25</v>
+      </c>
+      <c r="I15" s="7">
+        <v>15688</v>
+      </c>
+      <c r="J15" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H15" s="7">
-        <v>54</v>
-      </c>
-      <c r="I15" s="7">
-        <v>38065</v>
-      </c>
-      <c r="J15" s="7" t="s">
+      <c r="K15" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="M15" s="7">
+        <v>58</v>
+      </c>
+      <c r="N15" s="7">
+        <v>37902</v>
+      </c>
+      <c r="O15" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="M15" s="7">
-        <v>107</v>
-      </c>
-      <c r="N15" s="7">
-        <v>79117</v>
-      </c>
-      <c r="O15" s="7" t="s">
+      <c r="P15" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1852,13 +2025,13 @@
         <v>60</v>
       </c>
       <c r="C16" s="7">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>12881</v>
+        <v>3033</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>117</v>
@@ -1867,10 +2040,10 @@
         <v>118</v>
       </c>
       <c r="H16" s="7">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I16" s="7">
-        <v>11801</v>
+        <v>4879</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>119</v>
@@ -1882,10 +2055,10 @@
         <v>121</v>
       </c>
       <c r="M16" s="7">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="N16" s="7">
-        <v>24682</v>
+        <v>7912</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>122</v>
@@ -1903,10 +2076,10 @@
         <v>3</v>
       </c>
       <c r="C17" s="7">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D17" s="7">
-        <v>204474</v>
+        <v>173491</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>70</v>
@@ -1918,10 +2091,10 @@
         <v>70</v>
       </c>
       <c r="H17" s="7">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="I17" s="7">
-        <v>198267</v>
+        <v>158251</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>70</v>
@@ -1933,10 +2106,10 @@
         <v>70</v>
       </c>
       <c r="M17" s="7">
-        <v>551</v>
+        <v>531</v>
       </c>
       <c r="N17" s="7">
-        <v>402741</v>
+        <v>331742</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>70</v>
@@ -1956,10 +2129,10 @@
         <v>10</v>
       </c>
       <c r="C18" s="7">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D18" s="7">
-        <v>11989</v>
+        <v>9555</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>126</v>
@@ -1974,31 +2147,31 @@
         <v>11</v>
       </c>
       <c r="I18" s="7">
-        <v>8450</v>
+        <v>7781</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>129</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>22</v>
+      </c>
+      <c r="N18" s="7">
+        <v>17336</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="M18" s="7">
-        <v>25</v>
-      </c>
-      <c r="N18" s="7">
-        <v>20439</v>
-      </c>
-      <c r="O18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2007,49 +2180,49 @@
         <v>20</v>
       </c>
       <c r="C19" s="7">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D19" s="7">
-        <v>51365</v>
+        <v>37445</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>49</v>
+      </c>
+      <c r="I19" s="7">
+        <v>36519</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="H19" s="7">
-        <v>53</v>
-      </c>
-      <c r="I19" s="7">
-        <v>40355</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>93</v>
+      </c>
+      <c r="N19" s="7">
+        <v>73964</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="M19" s="7">
-        <v>106</v>
-      </c>
-      <c r="N19" s="7">
-        <v>91720</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2058,40 +2231,40 @@
         <v>30</v>
       </c>
       <c r="C20" s="7">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D20" s="7">
-        <v>97213</v>
+        <v>86345</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>100</v>
+      </c>
+      <c r="I20" s="7">
+        <v>74477</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="H20" s="7">
-        <v>87</v>
-      </c>
-      <c r="I20" s="7">
-        <v>70219</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>148</v>
       </c>
       <c r="M20" s="7">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="N20" s="7">
-        <v>167433</v>
+        <v>160822</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>149</v>
@@ -2109,10 +2282,10 @@
         <v>40</v>
       </c>
       <c r="C21" s="7">
-        <v>213</v>
+        <v>45</v>
       </c>
       <c r="D21" s="7">
-        <v>174906</v>
+        <v>35817</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>152</v>
@@ -2124,10 +2297,10 @@
         <v>154</v>
       </c>
       <c r="H21" s="7">
-        <v>216</v>
+        <v>36</v>
       </c>
       <c r="I21" s="7">
-        <v>157711</v>
+        <v>27050</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>155</v>
@@ -2139,10 +2312,10 @@
         <v>157</v>
       </c>
       <c r="M21" s="7">
-        <v>429</v>
+        <v>81</v>
       </c>
       <c r="N21" s="7">
-        <v>332617</v>
+        <v>62867</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>158</v>
@@ -2160,10 +2333,10 @@
         <v>50</v>
       </c>
       <c r="C22" s="7">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D22" s="7">
-        <v>53192</v>
+        <v>29135</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>161</v>
@@ -2175,10 +2348,10 @@
         <v>163</v>
       </c>
       <c r="H22" s="7">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="I22" s="7">
-        <v>60760</v>
+        <v>26420</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>164</v>
@@ -2190,10 +2363,10 @@
         <v>166</v>
       </c>
       <c r="M22" s="7">
-        <v>145</v>
+        <v>62</v>
       </c>
       <c r="N22" s="7">
-        <v>113951</v>
+        <v>55555</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>167</v>
@@ -2211,10 +2384,10 @@
         <v>60</v>
       </c>
       <c r="C23" s="7">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D23" s="7">
-        <v>13616</v>
+        <v>4181</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>170</v>
@@ -2226,10 +2399,10 @@
         <v>172</v>
       </c>
       <c r="H23" s="7">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="I23" s="7">
-        <v>8885</v>
+        <v>3867</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>173</v>
@@ -2241,19 +2414,19 @@
         <v>175</v>
       </c>
       <c r="M23" s="7">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="N23" s="7">
-        <v>22500</v>
+        <v>8047</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>176</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2262,10 +2435,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>478</v>
+        <v>243</v>
       </c>
       <c r="D24" s="7">
-        <v>402281</v>
+        <v>202478</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>70</v>
@@ -2277,10 +2450,10 @@
         <v>70</v>
       </c>
       <c r="H24" s="7">
-        <v>458</v>
+        <v>233</v>
       </c>
       <c r="I24" s="7">
-        <v>346380</v>
+        <v>176113</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>70</v>
@@ -2292,10 +2465,10 @@
         <v>70</v>
       </c>
       <c r="M24" s="7">
-        <v>936</v>
+        <v>476</v>
       </c>
       <c r="N24" s="7">
-        <v>748661</v>
+        <v>378591</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>70</v>
@@ -2309,49 +2482,49 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>3</v>
+        <v>179</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D25" s="7">
-        <v>19394</v>
+        <v>8279</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H25" s="7">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="I25" s="7">
-        <v>15760</v>
+        <v>4701</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>182</v>
+        <v>68</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M25" s="7">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="N25" s="7">
-        <v>35154</v>
+        <v>12980</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>184</v>
+        <v>122</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>185</v>
@@ -2366,10 +2539,10 @@
         <v>20</v>
       </c>
       <c r="C26" s="7">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="D26" s="7">
-        <v>87747</v>
+        <v>34550</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>187</v>
@@ -2378,37 +2551,37 @@
         <v>188</v>
       </c>
       <c r="G26" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H26" s="7">
+        <v>53</v>
+      </c>
+      <c r="I26" s="7">
+        <v>42248</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="H26" s="7">
-        <v>94</v>
-      </c>
-      <c r="I26" s="7">
-        <v>69728</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>99</v>
+      </c>
+      <c r="N26" s="7">
+        <v>76799</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="M26" s="7">
-        <v>195</v>
-      </c>
-      <c r="N26" s="7">
-        <v>157475</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2417,10 +2590,10 @@
         <v>30</v>
       </c>
       <c r="C27" s="7">
-        <v>194</v>
+        <v>151</v>
       </c>
       <c r="D27" s="7">
-        <v>149963</v>
+        <v>126102</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>195</v>
@@ -2432,10 +2605,10 @@
         <v>197</v>
       </c>
       <c r="H27" s="7">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="I27" s="7">
-        <v>126421</v>
+        <v>119149</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>198</v>
@@ -2447,10 +2620,10 @@
         <v>200</v>
       </c>
       <c r="M27" s="7">
-        <v>367</v>
+        <v>315</v>
       </c>
       <c r="N27" s="7">
-        <v>276384</v>
+        <v>245252</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>201</v>
@@ -2468,10 +2641,10 @@
         <v>40</v>
       </c>
       <c r="C28" s="7">
-        <v>387</v>
+        <v>86</v>
       </c>
       <c r="D28" s="7">
-        <v>290235</v>
+        <v>75437</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>204</v>
@@ -2483,10 +2656,10 @@
         <v>206</v>
       </c>
       <c r="H28" s="7">
-        <v>385</v>
+        <v>71</v>
       </c>
       <c r="I28" s="7">
-        <v>265017</v>
+        <v>58938</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>207</v>
@@ -2498,10 +2671,10 @@
         <v>209</v>
       </c>
       <c r="M28" s="7">
-        <v>772</v>
+        <v>157</v>
       </c>
       <c r="N28" s="7">
-        <v>555252</v>
+        <v>134376</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>210</v>
@@ -2519,10 +2692,10 @@
         <v>50</v>
       </c>
       <c r="C29" s="7">
-        <v>169</v>
+        <v>35</v>
       </c>
       <c r="D29" s="7">
-        <v>119247</v>
+        <v>34427</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>213</v>
@@ -2534,10 +2707,10 @@
         <v>215</v>
       </c>
       <c r="H29" s="7">
-        <v>172</v>
+        <v>33</v>
       </c>
       <c r="I29" s="7">
-        <v>120308</v>
+        <v>24629</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>216</v>
@@ -2549,10 +2722,10 @@
         <v>218</v>
       </c>
       <c r="M29" s="7">
-        <v>341</v>
+        <v>68</v>
       </c>
       <c r="N29" s="7">
-        <v>239555</v>
+        <v>59056</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>219</v>
@@ -2570,10 +2743,10 @@
         <v>60</v>
       </c>
       <c r="C30" s="7">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="D30" s="7">
-        <v>41523</v>
+        <v>10198</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>222</v>
@@ -2585,34 +2758,34 @@
         <v>224</v>
       </c>
       <c r="H30" s="7">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="I30" s="7">
-        <v>39626</v>
+        <v>6539</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>225</v>
       </c>
       <c r="K30" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M30" s="7">
+        <v>21</v>
+      </c>
+      <c r="N30" s="7">
+        <v>16737</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="L30" s="7" t="s">
+      <c r="P30" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="M30" s="7">
-        <v>127</v>
-      </c>
-      <c r="N30" s="7">
-        <v>81149</v>
-      </c>
-      <c r="O30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2621,55 +2794,420 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>341</v>
+      </c>
+      <c r="D31" s="7">
+        <v>288994</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H31" s="7">
+        <v>338</v>
+      </c>
+      <c r="I31" s="7">
+        <v>256205</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M31" s="7">
+        <v>679</v>
+      </c>
+      <c r="N31" s="7">
+        <v>545199</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>63</v>
+      </c>
+      <c r="D32" s="7">
+        <v>41523</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H32" s="7">
+        <v>64</v>
+      </c>
+      <c r="I32" s="7">
+        <v>39626</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="M32" s="7">
+        <v>127</v>
+      </c>
+      <c r="N32" s="7">
+        <v>81149</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>169</v>
+      </c>
+      <c r="D33" s="7">
+        <v>119247</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="H33" s="7">
+        <v>172</v>
+      </c>
+      <c r="I33" s="7">
+        <v>120308</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="M33" s="7">
+        <v>341</v>
+      </c>
+      <c r="N33" s="7">
+        <v>239555</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>387</v>
+      </c>
+      <c r="D34" s="7">
+        <v>290235</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H34" s="7">
+        <v>385</v>
+      </c>
+      <c r="I34" s="7">
+        <v>265017</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="M34" s="7">
+        <v>772</v>
+      </c>
+      <c r="N34" s="7">
+        <v>555252</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="7">
+        <v>194</v>
+      </c>
+      <c r="D35" s="7">
+        <v>149963</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H35" s="7">
+        <v>173</v>
+      </c>
+      <c r="I35" s="7">
+        <v>126421</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="M35" s="7">
+        <v>367</v>
+      </c>
+      <c r="N35" s="7">
+        <v>276384</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="7">
+        <v>101</v>
+      </c>
+      <c r="D36" s="7">
+        <v>87747</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H36" s="7">
+        <v>94</v>
+      </c>
+      <c r="I36" s="7">
+        <v>69728</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="M36" s="7">
+        <v>195</v>
+      </c>
+      <c r="N36" s="7">
+        <v>157475</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q36" s="7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="7">
+        <v>25</v>
+      </c>
+      <c r="D37" s="7">
+        <v>19394</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="H37" s="7">
+        <v>23</v>
+      </c>
+      <c r="I37" s="7">
+        <v>15760</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="M37" s="7">
+        <v>48</v>
+      </c>
+      <c r="N37" s="7">
+        <v>35154</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q37" s="7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="7">
         <v>939</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D38" s="7">
         <v>708108</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E38" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H38" s="7">
         <v>911</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I38" s="7">
         <v>636861</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J38" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M38" s="7">
         <v>1850</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N38" s="7">
         <v>1344969</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>70</v>
+      <c r="O38" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A18:A24"/>
     <mergeCell ref="A25:A31"/>
+    <mergeCell ref="A32:A38"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP3110_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP3110_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C4BF7D2-679C-468E-BDE3-48181C583065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E33E1425-05FD-4534-BE4B-34F8EF2EB778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6D012920-0FF2-45B9-A026-41776A72B5BB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{78B8E90F-7D8D-40D7-800E-F0B44F3A6B94}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="283">
   <si>
     <t>Menores según la frecuencia de tomar patatas fritas y aperitivos salados en 2023 (Tasa respuesta: 96,35%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>23,12%</t>
   </si>
   <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
   </si>
   <si>
     <t>33,31%</t>
   </si>
   <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
   </si>
   <si>
     <t>28,4%</t>
   </si>
   <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
   </si>
   <si>
     <t>menos de 1 vez semana</t>
@@ -104,28 +104,28 @@
     <t>27,56%</t>
   </si>
   <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
   </si>
   <si>
     <t>20,92%</t>
   </si>
   <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
   </si>
   <si>
     <t>24,12%</t>
   </si>
   <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
   </si>
   <si>
     <t>1 ó 2 veces semana</t>
@@ -134,28 +134,28 @@
     <t>31,5%</t>
   </si>
   <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
   </si>
   <si>
     <t>26,8%</t>
   </si>
   <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
   </si>
   <si>
     <t>29,07%</t>
   </si>
   <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
   </si>
   <si>
     <t>3 ó 4 veces semana</t>
@@ -164,721 +164,724 @@
     <t>8,66%</t>
   </si>
   <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
   </si>
   <si>
     <t>11,47%</t>
   </si>
   <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
   </si>
   <si>
     <t>10,12%</t>
   </si>
   <si>
-    <t>6,35%</t>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>5 ó 6 veces semana</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>Todos los días</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
   </si>
   <si>
     <t>16,3%</t>
   </si>
   <si>
-    <t>5 ó 6 veces semana</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>Todos los días</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
   </si>
   <si>
     <t>18,31%</t>
   </si>
   <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
+    <t>24,51%</t>
   </si>
   <si>
     <t>19,85%</t>
   </si>
   <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
   </si>
   <si>
     <t>20,55%</t>
   </si>
   <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
   </si>
   <si>
     <t>12,39%</t>
   </si>
   <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
   </si>
   <si>
     <t>10,95%</t>
   </si>
   <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
   </si>
   <si>
     <t>11,71%</t>
   </si>
   <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
   </si>
   <si>
     <t>2,74%</t>
   </si>
   <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
+    <t>1,82%</t>
   </si>
   <si>
     <t>2,47%</t>
   </si>
   <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
+    <t>1,56%</t>
   </si>
   <si>
     <t>2,61%</t>
   </si>
   <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1293,7 +1296,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5231801-445B-499B-BFA0-38BB5563EE28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F30D1F33-797C-461E-9F75-609D45016A8C}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1950,7 +1953,7 @@
         <v>103</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="M14" s="7">
         <v>112</v>
@@ -1959,13 +1962,13 @@
         <v>70094</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1980,13 +1983,13 @@
         <v>22214</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H15" s="7">
         <v>25</v>
@@ -1995,13 +1998,13 @@
         <v>15688</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M15" s="7">
         <v>58</v>
@@ -2010,13 +2013,13 @@
         <v>37902</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2031,13 +2034,13 @@
         <v>3033</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -2046,13 +2049,13 @@
         <v>4879</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -2061,13 +2064,13 @@
         <v>7912</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2123,7 +2126,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -2135,13 +2138,13 @@
         <v>9555</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H18" s="7">
         <v>11</v>
@@ -2150,13 +2153,13 @@
         <v>7781</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M18" s="7">
         <v>22</v>
@@ -2165,13 +2168,13 @@
         <v>17336</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2186,13 +2189,13 @@
         <v>37445</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H19" s="7">
         <v>49</v>
@@ -2201,13 +2204,13 @@
         <v>36519</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M19" s="7">
         <v>93</v>
@@ -2216,13 +2219,13 @@
         <v>73964</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2237,13 +2240,13 @@
         <v>86345</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H20" s="7">
         <v>100</v>
@@ -2252,13 +2255,13 @@
         <v>74477</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M20" s="7">
         <v>207</v>
@@ -2267,13 +2270,13 @@
         <v>160822</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2288,13 +2291,13 @@
         <v>35817</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H21" s="7">
         <v>36</v>
@@ -2303,13 +2306,13 @@
         <v>27050</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M21" s="7">
         <v>81</v>
@@ -2318,13 +2321,13 @@
         <v>62867</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2339,13 +2342,13 @@
         <v>29135</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H22" s="7">
         <v>32</v>
@@ -2354,13 +2357,13 @@
         <v>26420</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M22" s="7">
         <v>62</v>
@@ -2369,13 +2372,13 @@
         <v>55555</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2390,13 +2393,13 @@
         <v>4181</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>171</v>
+        <v>68</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -2405,13 +2408,13 @@
         <v>3867</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M23" s="7">
         <v>11</v>
@@ -2420,13 +2423,13 @@
         <v>8047</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2482,7 +2485,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2494,13 +2497,13 @@
         <v>8279</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -2509,13 +2512,13 @@
         <v>4701</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>68</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M25" s="7">
         <v>19</v>
@@ -2524,13 +2527,13 @@
         <v>12980</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2545,13 +2548,13 @@
         <v>34550</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="H26" s="7">
         <v>53</v>
@@ -2560,13 +2563,13 @@
         <v>42248</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M26" s="7">
         <v>99</v>
@@ -2575,13 +2578,13 @@
         <v>76799</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>192</v>
+        <v>137</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2596,13 +2599,13 @@
         <v>126102</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H27" s="7">
         <v>164</v>
@@ -2611,13 +2614,13 @@
         <v>119149</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M27" s="7">
         <v>315</v>
@@ -2626,13 +2629,13 @@
         <v>245252</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2647,13 +2650,13 @@
         <v>75437</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H28" s="7">
         <v>71</v>
@@ -2662,13 +2665,13 @@
         <v>58938</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M28" s="7">
         <v>157</v>
@@ -2677,13 +2680,13 @@
         <v>134376</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2698,13 +2701,13 @@
         <v>34427</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H29" s="7">
         <v>33</v>
@@ -2713,13 +2716,13 @@
         <v>24629</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M29" s="7">
         <v>68</v>
@@ -2728,13 +2731,13 @@
         <v>59056</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2749,10 +2752,10 @@
         <v>10198</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>223</v>
+        <v>55</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>224</v>
@@ -2767,10 +2770,10 @@
         <v>225</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>177</v>
+        <v>226</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>76</v>
+        <v>227</v>
       </c>
       <c r="M30" s="7">
         <v>21</v>
@@ -2779,13 +2782,13 @@
         <v>16737</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2853,13 +2856,13 @@
         <v>41523</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H32" s="7">
         <v>64</v>
@@ -2868,13 +2871,13 @@
         <v>39626</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>66</v>
+        <v>234</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="M32" s="7">
         <v>127</v>
@@ -2883,13 +2886,13 @@
         <v>81149</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2904,13 +2907,13 @@
         <v>119247</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H33" s="7">
         <v>172</v>
@@ -2919,13 +2922,13 @@
         <v>120308</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="M33" s="7">
         <v>341</v>
@@ -2934,13 +2937,13 @@
         <v>239555</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>141</v>
+        <v>247</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>244</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2955,13 +2958,13 @@
         <v>290235</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="H34" s="7">
         <v>385</v>
@@ -2970,13 +2973,13 @@
         <v>265017</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="M34" s="7">
         <v>772</v>
@@ -2985,13 +2988,13 @@
         <v>555252</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3006,13 +3009,13 @@
         <v>149963</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="H35" s="7">
         <v>173</v>
@@ -3021,13 +3024,13 @@
         <v>126421</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="M35" s="7">
         <v>367</v>
@@ -3036,13 +3039,13 @@
         <v>276384</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3057,13 +3060,13 @@
         <v>87747</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="H36" s="7">
         <v>94</v>
@@ -3072,13 +3075,13 @@
         <v>69728</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="M36" s="7">
         <v>195</v>
@@ -3087,13 +3090,13 @@
         <v>157475</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3108,13 +3111,13 @@
         <v>19394</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>274</v>
+        <v>125</v>
       </c>
       <c r="H37" s="7">
         <v>23</v>
@@ -3123,13 +3126,13 @@
         <v>15760</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>277</v>
+        <v>185</v>
       </c>
       <c r="M37" s="7">
         <v>48</v>
@@ -3138,13 +3141,13 @@
         <v>35154</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3200,7 +3203,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
